--- a/data/trans_dic/P2C_R1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R1-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,47 +671,47 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>17,09%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4,8%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,24%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>0,0; 45,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>0,0; 23,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>2,46; 25,82</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,87%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,39%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6,23%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,32%</t>
         </is>
       </c>
     </row>
@@ -864,32 +864,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>0,0; 2,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>0,29; 2,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>0,0; 1,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>0,0; 32,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0,0; 1,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>0,0; 3,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,34 +899,34 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,83</t>
+          <t>0,0; 0,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,14; 1,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,26; 2,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,0; 0,82</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,29</t>
+          <t>0,0; 11,36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,5%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,17; 2,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,49; 2,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>0,23; 2,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,6</t>
+          <t>0,0; 6,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,75; 3,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,61; 2,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,83; 3,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>0,0; 3,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,66; 2,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,71; 2,27</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,73; 2,46</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0,49; 3,83</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,77%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>0,0; 1,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,26; 2,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>0,93; 4,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,77</t>
+          <t>4,84; 17,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>0,0; 4,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0,35; 3,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>0,34; 3,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>4,39; 12,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,17; 1,9</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,46; 2,05</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,94; 3,06</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>5,71; 12,67</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1226,52 +1226,52 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,38%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,14%</t>
         </is>
       </c>
     </row>
@@ -1294,59 +1294,59 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>0,0; 5,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>10,72; 29,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>0,0; 2,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>1,36; 5,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>0,0; 2,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,55</t>
+          <t>5,43; 16,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,0; 2,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,7; 3,82</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>0,29; 2,56</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>9,43; 20,46</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,12%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,95%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,0; 2,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,0; 2,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,0; 1,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>13,65; 32,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,0; 2,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,0; 1,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,31; 3,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>1,18; 26,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,16; 1,33</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,15; 1,35</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,3; 1,77</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>2,07; 25,18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,6%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,79%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,05%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,0; 2,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,0; 2,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,0; 2,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>39,94; 56,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>0,0; 1,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,54; 2,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>0,32; 3,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>41,27; 51,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>0,0; 1,15</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0,48; 2,07</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>0,25; 1,96</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>42,56; 51,34</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>16,62%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,77%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>13,41%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,95%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>14,55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 1,09</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 1,3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 1,48</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>13,67; 20,39</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0,46; 1,3</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 1,71</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0,63; 1,45</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6,49; 18,02</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 0,99</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0,7; 1,35</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0,69; 1,33</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>7,97; 17,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P2C_R1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R1-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -739,7 +740,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,8</t>
+          <t>0,0; 49,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +760,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,59</t>
+          <t>0,0; 23,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,46; 25,82</t>
+          <t>2,64; 25,78</t>
         </is>
       </c>
     </row>
@@ -864,34 +865,34 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 3,26</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,23</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 32,57</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,92</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,0; 2,95</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 2,4</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,96</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 32,07</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,87</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,31</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
           <t>0; 0,52</t>
@@ -899,27 +900,27 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,94</t>
+          <t>0,0; 0,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,63</t>
+          <t>0,17; 1,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,05</t>
+          <t>0,26; 2,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,82</t>
+          <t>0,0; 0,98</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,36</t>
+          <t>0,0; 11,72</t>
         </is>
       </c>
     </row>
@@ -1009,27 +1010,27 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,9</t>
+          <t>0,51; 3,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,61</t>
+          <t>0,35; 2,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,79</t>
+          <t>0,0; 5,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,06</t>
+          <t>0,73; 3,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,73</t>
+          <t>0,49; 2,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,27 +1040,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,88</t>
+          <t>0,0; 3,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,15</t>
+          <t>0,69; 2,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,27</t>
+          <t>0,74; 2,37</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,46</t>
+          <t>0,75; 2,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,83</t>
+          <t>0,46; 4,04</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,55</t>
+          <t>0,0; 1,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,28</t>
+          <t>0,26; 2,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,36</t>
+          <t>0,95; 4,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,84; 17,03</t>
+          <t>5,03; 18,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,34</t>
+          <t>0,0; 3,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,49</t>
+          <t>0,36; 3,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,05</t>
+          <t>0,34; 3,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,39; 12,02</t>
+          <t>4,33; 12,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,9</t>
+          <t>0,17; 2,15</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,05</t>
+          <t>0,47; 2,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,06</t>
+          <t>0,97; 3,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 12,67</t>
+          <t>5,48; 13,21</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1295,52 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,13</t>
+          <t>0,0; 5,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,72; 29,37</t>
+          <t>10,84; 29,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,73</t>
+          <t>0,0; 3,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 5,96</t>
+          <t>1,34; 6,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,36</t>
+          <t>0,0; 2,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,43; 16,54</t>
+          <t>5,68; 16,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,01</t>
+          <t>0,0; 1,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,82</t>
+          <t>0,8; 3,9</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,56</t>
+          <t>0,29; 2,52</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,43; 20,46</t>
+          <t>9,46; 19,94</t>
         </is>
       </c>
     </row>
@@ -1424,27 +1425,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,48</t>
+          <t>0,0; 2,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,09</t>
+          <t>0,0; 2,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,83</t>
+          <t>0,0; 1,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,65; 32,42</t>
+          <t>13,32; 33,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,06</t>
+          <t>0,0; 1,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1454,32 +1455,32 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,01</t>
+          <t>0,3; 2,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,18; 26,77</t>
+          <t>1,37; 26,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,33</t>
+          <t>0,16; 1,31</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,35</t>
+          <t>0,15; 1,25</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,77</t>
+          <t>0,32; 1,77</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,07; 25,18</t>
+          <t>1,82; 25,16</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,02</t>
+          <t>0,0; 2,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,42</t>
+          <t>0,0; 2,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,25</t>
+          <t>0,0; 2,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>39,94; 56,21</t>
+          <t>38,96; 55,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,7</t>
+          <t>0,0; 1,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,92</t>
+          <t>0,56; 3,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,0</t>
+          <t>0,32; 2,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>41,27; 51,62</t>
+          <t>41,1; 52,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,15</t>
+          <t>0,0; 1,18</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,07</t>
+          <t>0,36; 2,37</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,96</t>
+          <t>0,32; 2,06</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>42,56; 51,34</t>
+          <t>42,62; 51,51</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,09</t>
+          <t>0,25; 1,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,3</t>
+          <t>0,44; 1,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,48</t>
+          <t>0,56; 1,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,67; 20,39</t>
+          <t>13,68; 20,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,3</t>
+          <t>0,46; 1,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,71</t>
+          <t>0,75; 1,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,45</t>
+          <t>0,62; 1,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,49; 18,02</t>
+          <t>6,46; 18,09</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,99</t>
+          <t>0,46; 1,06</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,35</t>
+          <t>0,69; 1,32</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,69; 1,33</t>
+          <t>0,7; 1,29</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>7,97; 17,65</t>
+          <t>8,67; 17,71</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con al menos un miembro que requiere cuidados y estos son remunerados</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1545</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>5923</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1887</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1946</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2061</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12693</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1812</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1944</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1886</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7587</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1855</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1951</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1971</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1524; 14907</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2679</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2855</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3278</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2198</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3598</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4877</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6452</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3440</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 10015</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7685</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5801</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17144</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7845</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 12545</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1870</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 888</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1210; 11892</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1937; 15666</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6085</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17376</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7693</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4492</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2267</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7672</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9236</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1510</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13944</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>15364</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13728</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>3777</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>872; 12493</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2891; 18278</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1608; 11269</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7007</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4282; 18284</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2998; 15687</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4486; 17594</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5147</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7603; 24599</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8721; 27902</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7520; 22758</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1154; 10193</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3095</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>7395</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>10340</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2735</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4286</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4269</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8493</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3633</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>7381</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>11664</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>18833</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4983</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>959; 8528</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3225; 14759</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5208; 18714</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 9199</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1102; 10703</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1072; 9688</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4820; 13995</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>903; 11356</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>3206; 15006</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>6365; 20025</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>11767; 28375</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2173</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>11727</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1228</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>6575</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>968</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>7112</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1228</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>6575</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3141</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>18839</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1919</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2059</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7508</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6920; 18668</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6999</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2974; 14552</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4850</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3944; 11747</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6130</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2908; 14193</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>967; 8434</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>12611; 26576</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2099</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2053</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>9379</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1053</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>981</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>4174</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>15398</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3152</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>3034</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>5126</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>24777</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6788</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7222</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5276</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>5646; 14038</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5248</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4897</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1027; 9506</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>3686; 70633</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1041; 8329</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>974; 8223</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2058; 11480</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>5684; 78435</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>39966</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>5509</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>3892</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>86062</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>6514</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>5482</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>126028</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4298</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5035</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5631</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>32707; 46471</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5133</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2150; 12031</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1247; 10458</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>75586; 95661</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6418</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>2276; 15012</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2052; 13202</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>114165; 137978</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>11056</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>16701</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>17618</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>81334</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>17725</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>28619</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>22539</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>120283</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>28781</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>45320</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>40157</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>201617</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>4736; 20677</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>9457; 26765</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>10603; 27109</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>66947; 97983</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>10664; 29730</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>18997; 41757</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>14413; 35890</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>57911; 162248</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>19490; 44763</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>32174; 61541</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>29413; 54728</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>120183; 245408</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>